--- a/bls.xlsx
+++ b/bls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bls_edrics_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A4737-D7EC-4653-819F-5F0A10DBF522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243679C1-014E-4DEF-852C-CC0A3B245F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFRESHER BLS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>851204-06-5144</t>
-  </si>
-  <si>
-    <t>KJ U32</t>
   </si>
   <si>
     <t>JT U29</t>
@@ -222,9 +219,6 @@
   </si>
   <si>
     <t>M7A</t>
-  </si>
-  <si>
-    <t>sdfasafs</t>
   </si>
 </sst>
 </file>
@@ -574,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E976"/>
+  <dimension ref="A1:E975"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,20 +665,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -7469,16 +7455,9 @@
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
     </row>
-    <row r="976" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A976" s="1"/>
-      <c r="B976" s="1"/>
-      <c r="C976" s="1"/>
-      <c r="D976" s="1"/>
-      <c r="E976" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E976">
-    <sortCondition ref="B1:B976"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E975">
+    <sortCondition ref="B1:B975"/>
   </sortState>
   <pageMargins left="1" right="0.73498312710911151" top="0.41760404949381336" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -7512,7 +7491,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -7530,7 +7509,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7539,7 +7518,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -7548,7 +7527,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7577,16 +7556,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7594,14 +7573,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7609,14 +7588,14 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7624,16 +7603,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7641,16 +7620,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7658,16 +7637,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7675,16 +7654,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7692,16 +7671,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7712,7 +7691,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7723,7 +7702,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7731,16 +7710,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3">
         <v>990529115701</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7760,7 +7739,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7771,7 +7750,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7779,16 +7758,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3">
         <v>810303065798</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7799,7 +7778,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7810,7 +7789,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7818,16 +7797,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7835,16 +7814,16 @@
         <v>19</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7852,16 +7831,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7956,7 +7935,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -7965,7 +7944,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -7974,7 +7953,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
